--- a/hw4.xlsx
+++ b/hw4.xlsx
@@ -353,9 +353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F103"/>
+  <dimension ref="B2:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -363,10 +365,10 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <f>_xll.BLACK.PUT.VALUE(B3, B4, B5, B6)</f>
-        <v>3.987761167674492</v>
+        <v>3.7885269662780985</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -378,7 +380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>100</v>
       </c>
@@ -387,30 +389,38 @@
       </c>
       <c r="E3">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D3, $B$6)</f>
-        <v>2.042810365310288E-12</v>
+        <v>1.3322676295501878E-13</v>
       </c>
       <c r="F3">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E3, D3, $B$6)</f>
-        <v>0.20000071004105649</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.19005927162506472</v>
+      </c>
+      <c r="G3">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E3, D3, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D4">
         <v>51</v>
       </c>
       <c r="E4">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D4, $B$6)</f>
-        <v>8.4275919576271008E-12</v>
+        <v>6.3138383410432652E-13</v>
       </c>
       <c r="F4">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E4, D4, $B$6)</f>
-        <v>0.20000106713844443</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.19001898274756948</v>
+      </c>
+      <c r="G4">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E4, D4, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>100</v>
       </c>
@@ -419,14 +429,18 @@
       </c>
       <c r="E5">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D5, $B$6)</f>
-        <v>3.2615909972832924E-11</v>
+        <v>2.7930990853519688E-12</v>
       </c>
       <c r="F5">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E5, D5, $B$6)</f>
-        <v>0.20000037213411237</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.18999733885633477</v>
+      </c>
+      <c r="G5">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E5, D5, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.25</v>
       </c>
@@ -435,1272 +449,1664 @@
       </c>
       <c r="E6">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D6, $B$6)</f>
-        <v>1.1876705174884705E-10</v>
+        <v>1.1616319017804244E-11</v>
       </c>
       <c r="F6">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E6, D6, $B$6)</f>
-        <v>0.20000012299024147</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.18999942274486281</v>
+      </c>
+      <c r="G6">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E6, D6, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>54</v>
       </c>
       <c r="E7">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D7, $B$6)</f>
-        <v>4.0813508128678677E-10</v>
+        <v>4.5309422880279726E-11</v>
       </c>
       <c r="F7">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E7, D7, $B$6)</f>
-        <v>0.19999996810595247</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.19000015271736118</v>
+      </c>
+      <c r="G7">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E7, D7, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>55</v>
       </c>
       <c r="E8">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D8, $B$6)</f>
-        <v>1.3272657972684954E-9</v>
+        <v>1.6624396304010247E-10</v>
       </c>
       <c r="F8">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E8, D8, $B$6)</f>
-        <v>0.20000000885058242</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.19000004303999016</v>
+      </c>
+      <c r="G8">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E8, D8, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>56</v>
       </c>
       <c r="E9">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D9, $B$6)</f>
-        <v>4.0953931357279316E-9</v>
+        <v>5.7547877574393169E-10</v>
       </c>
       <c r="F9">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E9, D9, $B$6)</f>
-        <v>0.19999999567099289</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.18999998189536768</v>
+      </c>
+      <c r="G9">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E9, D9, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>57</v>
       </c>
       <c r="E10">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D10, $B$6)</f>
-        <v>1.2019800099682953E-8</v>
+        <v>1.884602807145086E-9</v>
       </c>
       <c r="F10">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E10, D10, $B$6)</f>
-        <v>0.19999999933510065</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.1900000067772819</v>
+      </c>
+      <c r="G10">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E10, D10, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>58</v>
       </c>
       <c r="E11">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D11, $B$6)</f>
-        <v>3.363379053045179E-8</v>
+        <v>5.8538123237639184E-9</v>
       </c>
       <c r="F11">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E11, D11, $B$6)</f>
-        <v>0.19999999962716716</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.19000000013508184</v>
+      </c>
+      <c r="G11">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E11, D11, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>59</v>
       </c>
       <c r="E12">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D12, $B$6)</f>
-        <v>8.9926198154621773E-8</v>
+        <v>1.7288050990771353E-8</v>
       </c>
       <c r="F12">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E12, D12, $B$6)</f>
-        <v>0.20000000029640805</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.18999999970497952</v>
+      </c>
+      <c r="G12">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E12, D12, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>60</v>
       </c>
       <c r="E13">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D13, $B$6)</f>
-        <v>2.3021227479880224E-7</v>
+        <v>4.8656112472400537E-8</v>
       </c>
       <c r="F13">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E13, D13, $B$6)</f>
-        <v>0.20000000005030807</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.19000000015200683</v>
+      </c>
+      <c r="G13">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E13, D13, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>61</v>
       </c>
       <c r="E14">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D14, $B$6)</f>
-        <v>5.653952083739533E-7</v>
+        <v>1.3078357707918542E-7</v>
       </c>
       <c r="F14">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E14, D14, $B$6)</f>
-        <v>0.19999999995715598</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.19000000022974783</v>
+      </c>
+      <c r="G14">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E14, D14, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>62</v>
       </c>
       <c r="E15">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D15, $B$6)</f>
-        <v>1.334626436366726E-6</v>
+        <v>3.3641998786748673E-7</v>
       </c>
       <c r="F15">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E15, D15, $B$6)</f>
-        <v>0.19999999999609269</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.19000000001756157</v>
+      </c>
+      <c r="G15">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E15, D15, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>63</v>
       </c>
       <c r="E16">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D16, $B$6)</f>
-        <v>3.0332644964659039E-6</v>
+        <v>8.2978063192795659E-7</v>
       </c>
       <c r="F16">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E16, D16, $B$6)</f>
-        <v>0.19999999999932469</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000003233294</v>
+      </c>
+      <c r="G16">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E16, D16, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>64</v>
       </c>
       <c r="E17">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D17, $B$6)</f>
-        <v>6.6484794900567579E-6</v>
+        <v>1.9660431245238641E-6</v>
       </c>
       <c r="F17">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E17, D17, $B$6)</f>
-        <v>0.19999999999962725</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.1900000000119326</v>
+      </c>
+      <c r="G17">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E17, D17, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>65</v>
       </c>
       <c r="E18">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D18, $B$6)</f>
-        <v>1.4075919373968127E-5</v>
+        <v>4.4825452297225787E-6</v>
       </c>
       <c r="F18">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E18, D18, $B$6)</f>
-        <v>0.19999999999940749</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.1899999999990791</v>
+      </c>
+      <c r="G18">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E18, D18, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>66</v>
       </c>
       <c r="E19">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D19, $B$6)</f>
-        <v>2.8828327153118671E-5</v>
+        <v>9.8508358348237124E-6</v>
       </c>
       <c r="F19">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E19, D19, $B$6)</f>
-        <v>0.199999999999216</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999946435</v>
+      </c>
+      <c r="G19">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E19, D19, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>67</v>
       </c>
       <c r="E20">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D20, $B$6)</f>
-        <v>5.7195721882230544E-5</v>
+        <v>2.0898589579987359E-5</v>
       </c>
       <c r="F20">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E20, D20, $B$6)</f>
-        <v>0.20000000000016063</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000069139</v>
+      </c>
+      <c r="G20">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E20, D20, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>68</v>
       </c>
       <c r="E21">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D21, $B$6)</f>
-        <v>1.1007579544619617E-4</v>
+        <v>4.2864860557489948E-5</v>
       </c>
       <c r="F21">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E21, D21, $B$6)</f>
-        <v>0.19999999999994028</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.1900000000000322</v>
+      </c>
+      <c r="G21">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E21, D21, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>69</v>
       </c>
       <c r="E22">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D22, $B$6)</f>
-        <v>2.0575890379120887E-4</v>
+        <v>8.5121646098584858E-5</v>
       </c>
       <c r="F22">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E22, D22, $B$6)</f>
-        <v>0.20000000000008769</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000050404</v>
+      </c>
+      <c r="G22">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E22, D22, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>70</v>
       </c>
       <c r="E23">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D23, $B$6)</f>
-        <v>3.740173569044547E-4</v>
+        <v>1.6387663673844699E-4</v>
       </c>
       <c r="F23">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E23, D23, $B$6)</f>
-        <v>0.20000000000028512</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000028791</v>
+      </c>
+      <c r="G23">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E23, D23, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>71</v>
       </c>
       <c r="E24">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D24, $B$6)</f>
-        <v>6.6190274539268401E-4</v>
+        <v>3.0625934742317673E-4</v>
       </c>
       <c r="F24">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E24, D24, $B$6)</f>
-        <v>0.20000000000001211</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999975667</v>
+      </c>
+      <c r="G24">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E24, D24, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>72</v>
       </c>
       <c r="E25">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D25, $B$6)</f>
-        <v>1.1416834541579934E-3</v>
+        <v>5.5627323085394309E-4</v>
       </c>
       <c r="F25">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E25, D25, $B$6)</f>
-        <v>0.19999999999999596</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000566</v>
+      </c>
+      <c r="G25">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E25, D25, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>73</v>
       </c>
       <c r="E26">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D26, $B$6)</f>
-        <v>1.9213408279621369E-3</v>
+        <v>9.8315208049642999E-4</v>
       </c>
       <c r="F26">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E26, D26, $B$6)</f>
-        <v>0.20000000000000687</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999991882</v>
+      </c>
+      <c r="G26">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E26, D26, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>74</v>
       </c>
       <c r="E27">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D27, $B$6)</f>
-        <v>3.157970310562308E-3</v>
+        <v>1.6926679279071211E-3</v>
       </c>
       <c r="F27">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E27, D27, $B$6)</f>
-        <v>0.20000000000007262</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000001438</v>
+      </c>
+      <c r="G27">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E27, D27, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>75</v>
       </c>
       <c r="E28">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D28, $B$6)</f>
-        <v>5.074290108404711E-3</v>
+        <v>2.8418759461190657E-3</v>
       </c>
       <c r="F28">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E28, D28, $B$6)</f>
-        <v>0.20000000000000789</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000001244</v>
+      </c>
+      <c r="G28">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E28, D28, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>76</v>
       </c>
       <c r="E29">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D29, $B$6)</f>
-        <v>7.9782380089914451E-3</v>
+        <v>4.6576282567087901E-3</v>
       </c>
       <c r="F29">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E29, D29, $B$6)</f>
-        <v>0.20000000000000343</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999706</v>
+      </c>
+      <c r="G29">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E29, D29, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>77</v>
       </c>
       <c r="E30">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D30, $B$6)</f>
-        <v>1.228534023985528E-2</v>
+        <v>7.4589292202358881E-3</v>
       </c>
       <c r="F30">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E30, D30, $B$6)</f>
-        <v>0.20000000000000423</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000727</v>
+      </c>
+      <c r="G30">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E30, D30, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>78</v>
       </c>
       <c r="E31">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D31, $B$6)</f>
-        <v>1.8543180097092993E-2</v>
+        <v>1.1682838761084224E-2</v>
       </c>
       <c r="F31">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E31, D31, $B$6)</f>
-        <v>0.20000000000034476</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999442</v>
+      </c>
+      <c r="G31">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E31, D31, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>79</v>
       </c>
       <c r="E32">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D32, $B$6)</f>
-        <v>2.7456906561138417E-2</v>
+        <v>1.7913173489505607E-2</v>
       </c>
       <c r="F32">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E32, D32, $B$6)</f>
-        <v>0.20000000000000717</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999631</v>
+      </c>
+      <c r="G32">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E32, D32, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>80</v>
       </c>
       <c r="E33">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D33, $B$6)</f>
-        <v>3.9914343421845189E-2</v>
+        <v>2.6910742705706925E-2</v>
       </c>
       <c r="F33">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E33, D33, $B$6)</f>
-        <v>0.20000000000000351</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000214</v>
+      </c>
+      <c r="G33">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E33, D33, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>81</v>
       </c>
       <c r="E34">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D34, $B$6)</f>
-        <v>5.7008934088089269E-2</v>
+        <v>3.9643340385174364E-2</v>
       </c>
       <c r="F34">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E34, D34, $B$6)</f>
-        <v>0.19999999999999513</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000053</v>
+      </c>
+      <c r="G34">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E34, D34, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>82</v>
       </c>
       <c r="E35">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D35, $B$6)</f>
-        <v>8.0058534547881699E-2</v>
+        <v>5.7313260462375171E-2</v>
       </c>
       <c r="F35">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E35, D35, $B$6)</f>
-        <v>0.20000000000000084</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999811</v>
+      </c>
+      <c r="G35">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E35, D35, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>83</v>
       </c>
       <c r="E36">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D36, $B$6)</f>
-        <v>0.11061799019469776</v>
+        <v>8.1379781554218766E-2</v>
       </c>
       <c r="F36">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E36, D36, $B$6)</f>
-        <v>0.20000000000000509</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999703</v>
+      </c>
+      <c r="G36">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E36, D36, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>84</v>
       </c>
       <c r="E37">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D37, $B$6)</f>
-        <v>0.15048353300942274</v>
+        <v>0.11357394374117291</v>
       </c>
       <c r="F37">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E37, D37, $B$6)</f>
-        <v>0.20000000000004584</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000025</v>
+      </c>
+      <c r="G37">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E37, D37, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>85</v>
       </c>
       <c r="E38">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D38, $B$6)</f>
-        <v>0.20168732797265232</v>
+        <v>0.15590306303918933</v>
       </c>
       <c r="F38">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E38, D38, $B$6)</f>
-        <v>0.20000000000000207</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000056</v>
+      </c>
+      <c r="G38">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E38, D38, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>86</v>
       </c>
       <c r="E39">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D39, $B$6)</f>
-        <v>0.266480974586214</v>
+        <v>0.21064282204662721</v>
       </c>
       <c r="F39">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E39, D39, $B$6)</f>
-        <v>0.19999999999999946</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="G39">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E39, D39, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>87</v>
       </c>
       <c r="E40">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D40, $B$6)</f>
-        <v>0.34730740212793254</v>
+        <v>0.28031542940471166</v>
       </c>
       <c r="F40">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E40, D40, $B$6)</f>
-        <v>0.20000000000000065</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.189999999999998</v>
+      </c>
+      <c r="G40">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E40, D40, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>88</v>
       </c>
       <c r="E41">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D41, $B$6)</f>
-        <v>0.44676133725329414</v>
+        <v>0.36765321408729257</v>
       </c>
       <c r="F41">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E41, D41, $B$6)</f>
-        <v>0.19999999999999984</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999959</v>
+      </c>
+      <c r="G41">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E41, D41, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>89</v>
       </c>
       <c r="E42">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D42, $B$6)</f>
-        <v>0.56753930674006803</v>
+        <v>0.4755480408412911</v>
       </c>
       <c r="F42">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E42, D42, $B$6)</f>
-        <v>0.20000000000000076</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="G42">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E42, D42, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>90</v>
       </c>
       <c r="E43">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D43, $B$6)</f>
-        <v>0.71238089607367172</v>
+        <v>0.60698800585229229</v>
       </c>
       <c r="F43">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E43, D43, $B$6)</f>
-        <v>0.19999999999999993</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999928</v>
+      </c>
+      <c r="G43">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E43, D43, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>91</v>
       </c>
       <c r="E44">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D44, $B$6)</f>
-        <v>0.8840036464770229</v>
+        <v>0.76498389175679904</v>
       </c>
       <c r="F44">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E44, D44, $B$6)</f>
-        <v>0.20000000000000728</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="G44">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E44, D44, $B$6)</f>
+        <v>0.17472193995775281</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>92</v>
       </c>
       <c r="E45">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D45, $B$6)</f>
-        <v>1.0850344779622993</v>
+        <v>0.95248872583988131</v>
       </c>
       <c r="F45">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E45, D45, $B$6)</f>
-        <v>0.20000000000000046</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000028</v>
+      </c>
+      <c r="G45">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E45, D45, $B$6)</f>
+        <v>0.18253859635006833</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>93</v>
       </c>
       <c r="E46">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D46, $B$6)</f>
-        <v>1.3179408286409817</v>
+        <v>1.1723144073788099</v>
       </c>
       <c r="F46">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E46, D46, $B$6)</f>
-        <v>0.19999999999999962</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999934</v>
+      </c>
+      <c r="G46">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E46, D46, $B$6)</f>
+        <v>0.18621727641050126</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>94</v>
       </c>
       <c r="E47">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D47, $B$6)</f>
-        <v>1.5849647756893894</v>
+        <v>1.4270496882590749</v>
       </c>
       <c r="F47">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E47, D47, $B$6)</f>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000056</v>
+      </c>
+      <c r="G47">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E47, D47, $B$6)</f>
+        <v>0.18812763055603746</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>95</v>
       </c>
       <c r="E48">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D48, $B$6)</f>
-        <v>1.8880632480607282</v>
+        <v>1.7189837765294911</v>
       </c>
       <c r="F48">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E48, D48, $B$6)</f>
-        <v>0.20000000000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="G48">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E48, D48, $B$6)</f>
+        <v>0.18912040477848255</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>96</v>
       </c>
       <c r="E49">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D49, $B$6)</f>
-        <v>2.2288570738163145</v>
+        <v>2.0500394917520666</v>
       </c>
       <c r="F49">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E49, D49, $B$6)</f>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000064</v>
+      </c>
+      <c r="G49">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E49, D49, $B$6)</f>
+        <v>0.18960988714564095</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>97</v>
       </c>
       <c r="E50">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D50, $B$6)</f>
-        <v>2.6085910627585847</v>
+        <v>2.4217192727388408</v>
       </c>
       <c r="F50">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E50, D50, $B$6)</f>
-        <v>0.20000000000000934</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000036</v>
+      </c>
+      <c r="G50">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E50, D50, $B$6)</f>
+        <v>0.18982650164137227</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>98</v>
       </c>
       <c r="E51">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D51, $B$6)</f>
-        <v>3.0281066582734937</v>
+        <v>2.8350664878697742</v>
       </c>
       <c r="F51">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E51, D51, $B$6)</f>
-        <v>0.20000000000000037</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="G51">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E51, D51, $B$6)</f>
+        <v>0.18990560706796311</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>99</v>
       </c>
       <c r="E52">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D52, $B$6)</f>
-        <v>3.4878279587501879</v>
+        <v>3.2906435084266121</v>
       </c>
       <c r="F52">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E52, D52, $B$6)</f>
-        <v>0.20000000000000059</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+      <c r="G52">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E52, D52, $B$6)</f>
+        <v>0.18992598035985808</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>100</v>
       </c>
       <c r="E53">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D53, $B$6)</f>
-        <v>3.987761167674492</v>
+        <v>3.7885269662780985</v>
       </c>
       <c r="F53">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E53, D53, $B$6)</f>
-        <v>0.19999999999999987</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999945</v>
+      </c>
+      <c r="G53">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E53, D53, $B$6)</f>
+        <v>0.18992857625749376</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>101</v>
       </c>
       <c r="E54">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D54, $B$6)</f>
-        <v>4.5275068370385512</v>
+        <v>4.3283196160054445</v>
       </c>
       <c r="F54">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E54, D54, $B$6)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000009</v>
+      </c>
+      <c r="G54">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E54, D54, $B$6)</f>
+        <v>0.18992605120504794</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>102</v>
       </c>
       <c r="E55">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D55, $B$6)</f>
-        <v>5.1062836665495652</v>
+        <v>4.9091773339052764</v>
       </c>
       <c r="F55">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E55, D55, $B$6)</f>
-        <v>0.20000000000000029</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999972</v>
+      </c>
+      <c r="G55">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E55, D55, $B$6)</f>
+        <v>0.18990714092798872</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>103</v>
       </c>
       <c r="E56">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D56, $B$6)</f>
-        <v>5.7229621445706016</v>
+        <v>5.5298490702119949</v>
       </c>
       <c r="F56">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E56, D56, $B$6)</f>
-        <v>0.20000000000000606</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000022</v>
+      </c>
+      <c r="G56">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E56, D56, $B$6)</f>
+        <v>0.18983743924942922</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>104</v>
       </c>
       <c r="E57">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D57, $B$6)</f>
-        <v>6.376105985444056</v>
+        <v>6.1887270629541149</v>
       </c>
       <c r="F57">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E57, D57, $B$6)</f>
-        <v>0.1999999999999994</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999925</v>
+      </c>
+      <c r="G57">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E57, D57, $B$6)</f>
+        <v>0.18965674670714719</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>105</v>
       </c>
       <c r="E58">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D58, $B$6)</f>
-        <v>7.0640191378988391</v>
+        <v>6.8839043365846209</v>
       </c>
       <c r="F58">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E58, D58, $B$6)</f>
-        <v>0.20000000000000032</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999953</v>
+      </c>
+      <c r="G58">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E58, D58, $B$6)</f>
+        <v>0.18927186523537073</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>106</v>
       </c>
       <c r="E59">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D59, $B$6)</f>
-        <v>7.7847961044341929</v>
+        <v>7.6132364399184667</v>
       </c>
       <c r="F59">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E59, D59, $B$6)</f>
-        <v>0.19999999999999971</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999992</v>
+      </c>
+      <c r="G59">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E59, D59, $B$6)</f>
+        <v>0.18854152666113946</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>107</v>
       </c>
       <c r="E60">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D60, $B$6)</f>
-        <v>8.5363734057617648</v>
+        <v>8.3744045030477707</v>
       </c>
       <c r="F60">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E60, D60, $B$6)</f>
-        <v>0.20000000000000048</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000131</v>
+      </c>
+      <c r="G60">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E60, D60, $B$6)</f>
+        <v>0.18724481789869099</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>108</v>
       </c>
       <c r="E61">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D61, $B$6)</f>
-        <v>9.3165802243033653</v>
+        <v>9.1649769765946871</v>
       </c>
       <c r="F61">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E61, D61, $B$6)</f>
-        <v>0.19999999999999873</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.1900000000000005</v>
+      </c>
+      <c r="G61">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E61, D61, $B$6)</f>
+        <v>0.18500805406058318</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>109</v>
       </c>
       <c r="E62">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D62, $B$6)</f>
-        <v>10.123186539019301</v>
+        <v>9.9824678165569338</v>
       </c>
       <c r="F62">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E62, D62, $B$6)</f>
-        <v>0.20000000000000179</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000178</v>
+      </c>
+      <c r="G62">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E62, D62, $B$6)</f>
+        <v>0.18109894100430571</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>110</v>
       </c>
       <c r="E63">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D63, $B$6)</f>
-        <v>10.953947391857241</v>
+        <v>10.824389349504472</v>
       </c>
       <c r="F63">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E63, D63, $B$6)</f>
-        <v>0.20000000000001189</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999984</v>
+      </c>
+      <c r="G63">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E63, D63, $B$6)</f>
+        <v>0.17357672212564354</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>111</v>
       </c>
       <c r="E64">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D64, $B$6)</f>
-        <v>11.806642276452777</v>
+        <v>11.688298553386943</v>
       </c>
       <c r="F64">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E64, D64, $B$6)</f>
-        <v>0.20000000000000032</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000083</v>
+      </c>
+      <c r="G64">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E64, D64, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>112</v>
       </c>
       <c r="E65">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D65, $B$6)</f>
-        <v>12.679108988059141</v>
+        <v>12.571835981314621</v>
       </c>
       <c r="F65">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E65, D65, $B$6)</f>
-        <v>0.2000000000000009</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000036</v>
+      </c>
+      <c r="G65">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E65, D65, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>113</v>
       </c>
       <c r="E66">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D66, $B$6)</f>
-        <v>13.569271600088314</v>
+        <v>13.472757009338125</v>
       </c>
       <c r="F66">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E66, D66, $B$6)</f>
-        <v>0.19999999999999737</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000114</v>
+      </c>
+      <c r="G66">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E66, D66, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>114</v>
       </c>
       <c r="E67">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D67, $B$6)</f>
-        <v>14.47516252219144</v>
+        <v>14.388955482792582</v>
       </c>
       <c r="F67">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E67, D67, $B$6)</f>
-        <v>0.19999999999999962</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999884</v>
+      </c>
+      <c r="G67">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E67, D67, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>115</v>
       </c>
       <c r="E68">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D68, $B$6)</f>
-        <v>15.394938837716396</v>
+        <v>15.318480155950098</v>
       </c>
       <c r="F68">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E68, D68, $B$6)</f>
-        <v>0.20000000000000007</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999978</v>
+      </c>
+      <c r="G68">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E68, D68, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>116</v>
       </c>
       <c r="E69">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D69, $B$6)</f>
-        <v>16.326893309710854</v>
+        <v>16.259544561035028</v>
       </c>
       <c r="F69">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E69, D69, $B$6)</f>
-        <v>0.20000000000000256</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999775</v>
+      </c>
+      <c r="G69">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E69, D69, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>117</v>
       </c>
       <c r="E70">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D70, $B$6)</f>
-        <v>17.269460583629098</v>
+        <v>17.21053110613073</v>
       </c>
       <c r="F70">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E70, D70, $B$6)</f>
-        <v>0.2000000000000014</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999731</v>
+      </c>
+      <c r="G70">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E70, D70, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>118</v>
       </c>
       <c r="E71">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D71, $B$6)</f>
-        <v>18.221219204170353</v>
+        <v>18.16999029320678</v>
       </c>
       <c r="F71">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E71, D71, $B$6)</f>
-        <v>0.20000000000000454</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000095</v>
+      </c>
+      <c r="G71">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E71, D71, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>119</v>
       </c>
       <c r="E72">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D72, $B$6)</f>
-        <v>19.180890108309015</v>
+        <v>19.136635976956512</v>
       </c>
       <c r="F72">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E72, D72, $B$6)</f>
-        <v>0.20000000000004206</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000275</v>
+      </c>
+      <c r="G72">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E72, D72, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>120</v>
       </c>
       <c r="E73">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D73, $B$6)</f>
-        <v>20.14733226325697</v>
+        <v>20.109337563855902</v>
       </c>
       <c r="F73">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E73, D73, $B$6)</f>
-        <v>0.20000000000000348</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.1899999999999952</v>
+      </c>
+      <c r="G73">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E73, D73, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>121</v>
       </c>
       <c r="E74">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D74, $B$6)</f>
-        <v>21.119536094302717</v>
+        <v>21.087109991028044</v>
       </c>
       <c r="F74">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E74, D74, $B$6)</f>
-        <v>0.20000000000000434</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000275</v>
+      </c>
+      <c r="G74">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E74, D74, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>122</v>
       </c>
       <c r="E75">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D75, $B$6)</f>
-        <v>22.096615300806519</v>
+        <v>22.069102237953956</v>
       </c>
       <c r="F75">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E75, D75, $B$6)</f>
-        <v>0.20000000000000193</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999023</v>
+      </c>
+      <c r="G75">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E75, D75, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>123</v>
       </c>
       <c r="E76">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D76, $B$6)</f>
-        <v>23.077797596311754</v>
+        <v>23.054585021552072</v>
       </c>
       <c r="F76">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E76, D76, $B$6)</f>
-        <v>0.20000000000000295</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999998893</v>
+      </c>
+      <c r="G76">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E76, D76, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>124</v>
       </c>
       <c r="E77">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D77, $B$6)</f>
-        <v>24.062414837222818</v>
+        <v>24.042938215812597</v>
       </c>
       <c r="F77">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E77, D77, $B$6)</f>
-        <v>0.19999999999999579</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999873</v>
+      </c>
+      <c r="G77">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E77, D77, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>125</v>
       </c>
       <c r="E78">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D78, $B$6)</f>
-        <v>25.04989292927732</v>
+        <v>25.033638428382119</v>
       </c>
       <c r="F78">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E78, D78, $B$6)</f>
-        <v>0.20000000000001183</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.1899999999999927</v>
+      </c>
+      <c r="G78">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E78, D78, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>126</v>
       </c>
       <c r="E79">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D79, $B$6)</f>
-        <v>26.039741826510522</v>
+        <v>26.026247063755221</v>
       </c>
       <c r="F79">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E79, D79, $B$6)</f>
-        <v>0.20000000000000942</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999999315</v>
+      </c>
+      <c r="G79">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E79, D79, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>127</v>
       </c>
       <c r="E80">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D80, $B$6)</f>
-        <v>27.031545866893069</v>
+        <v>27.020399109826059</v>
       </c>
       <c r="F80">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E80, D80, $B$6)</f>
-        <v>0.20000000000002557</v>
-      </c>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000097</v>
+      </c>
+      <c r="G80">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E80, D80, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>128</v>
       </c>
       <c r="E81">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D81, $B$6)</f>
-        <v>28.024954624625238</v>
+        <v>28.015792803733675</v>
       </c>
       <c r="F81">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E81, D81, $B$6)</f>
-        <v>0.20000000000021254</v>
-      </c>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.1899999999999864</v>
+      </c>
+      <c r="G81">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E81, D81, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>129</v>
       </c>
       <c r="E82">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D82, $B$6)</f>
-        <v>29.01967440261366</v>
+        <v>29.012180265182039</v>
       </c>
       <c r="F82">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E82, D82, $B$6)</f>
-        <v>0.200000000000008</v>
-      </c>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000000597</v>
+      </c>
+      <c r="G82">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E82, D82, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>130</v>
       </c>
       <c r="E83">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D83, $B$6)</f>
-        <v>30.01546044060332</v>
+        <v>30.009359130722757</v>
       </c>
       <c r="F83">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E83, D83, $B$6)</f>
-        <v>0.19999999999996665</v>
-      </c>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999997705</v>
+      </c>
+      <c r="G83">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E83, D83, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>131</v>
       </c>
       <c r="E84">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D84, $B$6)</f>
-        <v>31.012109874868926</v>
+        <v>31.007165180126833</v>
       </c>
       <c r="F84">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E84, D84, $B$6)</f>
-        <v>0.20000000000002996</v>
-      </c>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.1899999999999801</v>
+      </c>
+      <c r="G84">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E84, D84, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>132</v>
       </c>
       <c r="E85">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D85, $B$6)</f>
-        <v>32.009455453913802</v>
+        <v>32.005465914735126</v>
       </c>
       <c r="F85">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E85, D85, $B$6)</f>
-        <v>0.19999999999997187</v>
-      </c>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000004338</v>
+      </c>
+      <c r="G85">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E85, D85, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>133</v>
       </c>
       <c r="E86">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D86, $B$6)</f>
-        <v>33.007359990615484</v>
+        <v>33.004155026089464</v>
       </c>
       <c r="F86">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E86, D86, $B$6)</f>
-        <v>0.1999999999999586</v>
-      </c>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999990194</v>
+      </c>
+      <c r="G86">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E86, D86, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>134</v>
       </c>
       <c r="E87">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D87, $B$6)</f>
-        <v>34.005711513827038</v>
+        <v>34.003147679622415</v>
       </c>
       <c r="F87">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E87, D87, $B$6)</f>
-        <v>0.2000000000000704</v>
-      </c>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999995795</v>
+      </c>
+      <c r="G87">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E87, D87, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>135</v>
       </c>
       <c r="E88">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D88, $B$6)</f>
-        <v>35.004419070649647</v>
+        <v>35.002376531158006</v>
       </c>
       <c r="F88">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E88, D88, $B$6)</f>
-        <v>0.19999999999992918</v>
-      </c>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999989614</v>
+      </c>
+      <c r="G88">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E88, D88, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>136</v>
       </c>
       <c r="E89">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D89, $B$6)</f>
-        <v>36.003409123466767</v>
+        <v>36.001788391987176</v>
       </c>
       <c r="F89">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E89, D89, $B$6)</f>
-        <v>0.20000000000041154</v>
-      </c>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999989345</v>
+      </c>
+      <c r="G89">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E89, D89, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>137</v>
       </c>
       <c r="E90">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D90, $B$6)</f>
-        <v>37.002622482446</v>
+        <v>37.001341460022047</v>
       </c>
       <c r="F90">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E90, D90, $B$6)</f>
-        <v>0.19999999999987222</v>
-      </c>
-    </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000018918</v>
+      </c>
+      <c r="G90">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E90, D90, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>138</v>
       </c>
       <c r="E91">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D91, $B$6)</f>
-        <v>38.002011713730752</v>
+        <v>38.001003038887191</v>
       </c>
       <c r="F91">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E91, D91, $B$6)</f>
-        <v>0.19999999999992291</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000011522</v>
+      </c>
+      <c r="G91">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E91, D91, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>139</v>
       </c>
       <c r="E92">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D92, $B$6)</f>
-        <v>39.001538965202684</v>
+        <v>39.000747672847169</v>
       </c>
       <c r="F92">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E92, D92, $B$6)</f>
-        <v>0.19999999999999091</v>
-      </c>
-    </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000017087</v>
+      </c>
+      <c r="G92">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E92, D92, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>140</v>
       </c>
       <c r="E93">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D93, $B$6)</f>
-        <v>40.001174154865041</v>
+        <v>40.000555632456695</v>
       </c>
       <c r="F93">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E93, D93, $B$6)</f>
-        <v>0.19999999999995188</v>
-      </c>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999957173</v>
+      </c>
+      <c r="G93">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E93, D93, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>141</v>
       </c>
       <c r="E94">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D94, $B$6)</f>
-        <v>41.000893471044151</v>
+        <v>41.000411693192262</v>
       </c>
       <c r="F94">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E94, D94, $B$6)</f>
-        <v>0.1999999999999893</v>
-      </c>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000034403</v>
+      </c>
+      <c r="G94">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E94, D94, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>142</v>
       </c>
       <c r="E95">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D95, $B$6)</f>
-        <v>42.000678138305773</v>
+        <v>42.000304156655574</v>
       </c>
       <c r="F95">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E95, D95, $B$6)</f>
-        <v>0.20000000000049087</v>
-      </c>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999985498</v>
+      </c>
+      <c r="G95">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E95, D95, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>143</v>
       </c>
       <c r="E96">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D96, $B$6)</f>
-        <v>43.000513407909125</v>
+        <v>43.000224070948548</v>
       </c>
       <c r="F96">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E96, D96, $B$6)</f>
-        <v>0.20000000000110099</v>
-      </c>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999895109</v>
+      </c>
+      <c r="G96">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E96, D96, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>144</v>
       </c>
       <c r="E97">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D97, $B$6)</f>
-        <v>44.000387736526079</v>
+        <v>44.000164613310631</v>
       </c>
       <c r="F97">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E97, D97, $B$6)</f>
-        <v>0.2000000000008747</v>
-      </c>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000072842</v>
+      </c>
+      <c r="G97">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E97, D97, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>145</v>
       </c>
       <c r="E98">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D98, $B$6)</f>
-        <v>45.00029212166298</v>
+        <v>45.000120603979468</v>
       </c>
       <c r="F98">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E98, D98, $B$6)</f>
-        <v>0.20000000000050477</v>
-      </c>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999890194</v>
+      </c>
+      <c r="G98">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E98, D98, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>146</v>
       </c>
       <c r="E99">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D99, $B$6)</f>
-        <v>46.000219566619791</v>
+        <v>46.000088125437813</v>
       </c>
       <c r="F99">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E99, D99, $B$6)</f>
-        <v>0.19999999999877349</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.19000000000046477</v>
+      </c>
+      <c r="G99">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E99, D99, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>147</v>
       </c>
       <c r="E100">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D100, $B$6)</f>
-        <v>47.000164651840336</v>
+        <v>47.000064225739123</v>
       </c>
       <c r="F100">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E100, D100, $B$6)</f>
-        <v>0.19999999999907758</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999736247</v>
+      </c>
+      <c r="G100">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E100, D100, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>148</v>
       </c>
       <c r="E101">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D101, $B$6)</f>
-        <v>48.000123193107342</v>
+        <v>48.000046688494209</v>
       </c>
       <c r="F101">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E101, D101, $B$6)</f>
-        <v>0.1999999999996708</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.1900000000024972</v>
+      </c>
+      <c r="G101">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E101, D101, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>149</v>
       </c>
       <c r="E102">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D102, $B$6)</f>
-        <v>49.000091970216872</v>
+        <v>49.000033855393241</v>
       </c>
       <c r="F102">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E102, D102, $B$6)</f>
-        <v>0.19999999999785539</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+        <v>0.18999999999800909</v>
+      </c>
+      <c r="G102">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E102, D102, $B$6)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>150</v>
       </c>
       <c r="E103">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D103, $B$6)</f>
-        <v>50.000068512534739</v>
+        <v>50.000024489896703</v>
       </c>
       <c r="F103">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E103, D103, $B$6)</f>
-        <v>0.20000000000277229</v>
+        <v>0.19000000000851847</v>
+      </c>
+      <c r="G103">
+        <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E103, D103, $B$6)</f>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/hw4.xlsx
+++ b/hw4.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -356,7 +357,7 @@
   <dimension ref="B2:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,7 +369,7 @@
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <f>_xll.BLACK.PUT.VALUE(B3, B4, B5, B6)</f>
-        <v>3.7885269662780985</v>
+        <v>3.987761167674492</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -389,11 +390,11 @@
       </c>
       <c r="E3">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D3, $B$6)</f>
-        <v>1.3322676295501878E-13</v>
+        <v>2.042810365310288E-12</v>
       </c>
       <c r="F3">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E3, D3, $B$6)</f>
-        <v>0.19005927162506472</v>
+        <v>0.2</v>
       </c>
       <c r="G3">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E3, D3, $B$6)</f>
@@ -402,18 +403,18 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
         <v>51</v>
       </c>
       <c r="E4">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D4, $B$6)</f>
-        <v>6.3138383410432652E-13</v>
+        <v>8.4275919576271008E-12</v>
       </c>
       <c r="F4">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E4, D4, $B$6)</f>
-        <v>0.19001898274756948</v>
+        <v>0.2</v>
       </c>
       <c r="G4">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E4, D4, $B$6)</f>
@@ -429,11 +430,11 @@
       </c>
       <c r="E5">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D5, $B$6)</f>
-        <v>2.7930990853519688E-12</v>
+        <v>3.2615909972832924E-11</v>
       </c>
       <c r="F5">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E5, D5, $B$6)</f>
-        <v>0.18999733885633477</v>
+        <v>0.2</v>
       </c>
       <c r="G5">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E5, D5, $B$6)</f>
@@ -449,11 +450,11 @@
       </c>
       <c r="E6">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D6, $B$6)</f>
-        <v>1.1616319017804244E-11</v>
+        <v>1.1876705174884705E-10</v>
       </c>
       <c r="F6">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E6, D6, $B$6)</f>
-        <v>0.18999942274486281</v>
+        <v>0.2</v>
       </c>
       <c r="G6">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E6, D6, $B$6)</f>
@@ -466,11 +467,11 @@
       </c>
       <c r="E7">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D7, $B$6)</f>
-        <v>4.5309422880279726E-11</v>
+        <v>4.0813508128678677E-10</v>
       </c>
       <c r="F7">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E7, D7, $B$6)</f>
-        <v>0.19000015271736118</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E7, D7, $B$6)</f>
@@ -483,11 +484,11 @@
       </c>
       <c r="E8">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D8, $B$6)</f>
-        <v>1.6624396304010247E-10</v>
+        <v>1.3272657972684954E-9</v>
       </c>
       <c r="F8">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E8, D8, $B$6)</f>
-        <v>0.19000004303999016</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E8, D8, $B$6)</f>
@@ -500,11 +501,11 @@
       </c>
       <c r="E9">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D9, $B$6)</f>
-        <v>5.7547877574393169E-10</v>
+        <v>4.0953931357279316E-9</v>
       </c>
       <c r="F9">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E9, D9, $B$6)</f>
-        <v>0.18999998189536768</v>
+        <v>0.2</v>
       </c>
       <c r="G9">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E9, D9, $B$6)</f>
@@ -517,11 +518,11 @@
       </c>
       <c r="E10">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D10, $B$6)</f>
-        <v>1.884602807145086E-9</v>
+        <v>1.2019800099682953E-8</v>
       </c>
       <c r="F10">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E10, D10, $B$6)</f>
-        <v>0.1900000067772819</v>
+        <v>0.2</v>
       </c>
       <c r="G10">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E10, D10, $B$6)</f>
@@ -534,11 +535,11 @@
       </c>
       <c r="E11">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D11, $B$6)</f>
-        <v>5.8538123237639184E-9</v>
+        <v>3.363379053045179E-8</v>
       </c>
       <c r="F11">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E11, D11, $B$6)</f>
-        <v>0.19000000013508184</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E11, D11, $B$6)</f>
@@ -551,11 +552,11 @@
       </c>
       <c r="E12">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D12, $B$6)</f>
-        <v>1.7288050990771353E-8</v>
+        <v>8.9926198154621773E-8</v>
       </c>
       <c r="F12">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E12, D12, $B$6)</f>
-        <v>0.18999999970497952</v>
+        <v>0.2</v>
       </c>
       <c r="G12">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E12, D12, $B$6)</f>
@@ -568,11 +569,11 @@
       </c>
       <c r="E13">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D13, $B$6)</f>
-        <v>4.8656112472400537E-8</v>
+        <v>2.3021227479880224E-7</v>
       </c>
       <c r="F13">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E13, D13, $B$6)</f>
-        <v>0.19000000015200683</v>
+        <v>0.2</v>
       </c>
       <c r="G13">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E13, D13, $B$6)</f>
@@ -585,11 +586,11 @@
       </c>
       <c r="E14">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D14, $B$6)</f>
-        <v>1.3078357707918542E-7</v>
+        <v>5.653952083739533E-7</v>
       </c>
       <c r="F14">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E14, D14, $B$6)</f>
-        <v>0.19000000022974783</v>
+        <v>0.2</v>
       </c>
       <c r="G14">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E14, D14, $B$6)</f>
@@ -602,11 +603,11 @@
       </c>
       <c r="E15">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D15, $B$6)</f>
-        <v>3.3641998786748673E-7</v>
+        <v>1.334626436366726E-6</v>
       </c>
       <c r="F15">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E15, D15, $B$6)</f>
-        <v>0.19000000001756157</v>
+        <v>0.2</v>
       </c>
       <c r="G15">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E15, D15, $B$6)</f>
@@ -619,11 +620,11 @@
       </c>
       <c r="E16">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D16, $B$6)</f>
-        <v>8.2978063192795659E-7</v>
+        <v>3.0332644964659039E-6</v>
       </c>
       <c r="F16">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E16, D16, $B$6)</f>
-        <v>0.19000000003233294</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E16, D16, $B$6)</f>
@@ -636,11 +637,11 @@
       </c>
       <c r="E17">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D17, $B$6)</f>
-        <v>1.9660431245238641E-6</v>
+        <v>6.6484794900567579E-6</v>
       </c>
       <c r="F17">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E17, D17, $B$6)</f>
-        <v>0.1900000000119326</v>
+        <v>0.2</v>
       </c>
       <c r="G17">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E17, D17, $B$6)</f>
@@ -653,11 +654,11 @@
       </c>
       <c r="E18">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D18, $B$6)</f>
-        <v>4.4825452297225787E-6</v>
+        <v>1.4075919373968127E-5</v>
       </c>
       <c r="F18">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E18, D18, $B$6)</f>
-        <v>0.1899999999990791</v>
+        <v>0.2</v>
       </c>
       <c r="G18">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E18, D18, $B$6)</f>
@@ -670,11 +671,11 @@
       </c>
       <c r="E19">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D19, $B$6)</f>
-        <v>9.8508358348237124E-6</v>
+        <v>2.8828327153118671E-5</v>
       </c>
       <c r="F19">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E19, D19, $B$6)</f>
-        <v>0.18999999999946435</v>
+        <v>0.2</v>
       </c>
       <c r="G19">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E19, D19, $B$6)</f>
@@ -687,11 +688,11 @@
       </c>
       <c r="E20">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D20, $B$6)</f>
-        <v>2.0898589579987359E-5</v>
+        <v>5.7195721882230544E-5</v>
       </c>
       <c r="F20">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E20, D20, $B$6)</f>
-        <v>0.19000000000069139</v>
+        <v>0.2</v>
       </c>
       <c r="G20">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E20, D20, $B$6)</f>
@@ -704,11 +705,11 @@
       </c>
       <c r="E21">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D21, $B$6)</f>
-        <v>4.2864860557489948E-5</v>
+        <v>1.1007579544619617E-4</v>
       </c>
       <c r="F21">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E21, D21, $B$6)</f>
-        <v>0.1900000000000322</v>
+        <v>0.2</v>
       </c>
       <c r="G21">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E21, D21, $B$6)</f>
@@ -721,11 +722,11 @@
       </c>
       <c r="E22">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D22, $B$6)</f>
-        <v>8.5121646098584858E-5</v>
+        <v>2.0575890379120887E-4</v>
       </c>
       <c r="F22">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E22, D22, $B$6)</f>
-        <v>0.19000000000050404</v>
+        <v>0.2</v>
       </c>
       <c r="G22">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E22, D22, $B$6)</f>
@@ -738,11 +739,11 @@
       </c>
       <c r="E23">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D23, $B$6)</f>
-        <v>1.6387663673844699E-4</v>
+        <v>3.740173569044547E-4</v>
       </c>
       <c r="F23">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E23, D23, $B$6)</f>
-        <v>0.19000000000028791</v>
+        <v>0.2</v>
       </c>
       <c r="G23">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E23, D23, $B$6)</f>
@@ -755,11 +756,11 @@
       </c>
       <c r="E24">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D24, $B$6)</f>
-        <v>3.0625934742317673E-4</v>
+        <v>6.6190274539268401E-4</v>
       </c>
       <c r="F24">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E24, D24, $B$6)</f>
-        <v>0.18999999999975667</v>
+        <v>0.2</v>
       </c>
       <c r="G24">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E24, D24, $B$6)</f>
@@ -772,11 +773,11 @@
       </c>
       <c r="E25">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D25, $B$6)</f>
-        <v>5.5627323085394309E-4</v>
+        <v>1.1416834541579934E-3</v>
       </c>
       <c r="F25">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E25, D25, $B$6)</f>
-        <v>0.19000000000000566</v>
+        <v>0.2</v>
       </c>
       <c r="G25">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E25, D25, $B$6)</f>
@@ -789,11 +790,11 @@
       </c>
       <c r="E26">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D26, $B$6)</f>
-        <v>9.8315208049642999E-4</v>
+        <v>1.9213408279621369E-3</v>
       </c>
       <c r="F26">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E26, D26, $B$6)</f>
-        <v>0.18999999999991882</v>
+        <v>0.2</v>
       </c>
       <c r="G26">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E26, D26, $B$6)</f>
@@ -806,11 +807,11 @@
       </c>
       <c r="E27">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D27, $B$6)</f>
-        <v>1.6926679279071211E-3</v>
+        <v>3.157970310562308E-3</v>
       </c>
       <c r="F27">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E27, D27, $B$6)</f>
-        <v>0.19000000000001438</v>
+        <v>0.2</v>
       </c>
       <c r="G27">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E27, D27, $B$6)</f>
@@ -823,11 +824,11 @@
       </c>
       <c r="E28">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D28, $B$6)</f>
-        <v>2.8418759461190657E-3</v>
+        <v>5.074290108404711E-3</v>
       </c>
       <c r="F28">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E28, D28, $B$6)</f>
-        <v>0.19000000000001244</v>
+        <v>0.2</v>
       </c>
       <c r="G28">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E28, D28, $B$6)</f>
@@ -840,11 +841,11 @@
       </c>
       <c r="E29">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D29, $B$6)</f>
-        <v>4.6576282567087901E-3</v>
+        <v>7.9782380089914451E-3</v>
       </c>
       <c r="F29">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E29, D29, $B$6)</f>
-        <v>0.18999999999999706</v>
+        <v>0.2</v>
       </c>
       <c r="G29">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E29, D29, $B$6)</f>
@@ -857,11 +858,11 @@
       </c>
       <c r="E30">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D30, $B$6)</f>
-        <v>7.4589292202358881E-3</v>
+        <v>1.228534023985528E-2</v>
       </c>
       <c r="F30">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E30, D30, $B$6)</f>
-        <v>0.19000000000000727</v>
+        <v>0.2</v>
       </c>
       <c r="G30">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E30, D30, $B$6)</f>
@@ -874,11 +875,11 @@
       </c>
       <c r="E31">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D31, $B$6)</f>
-        <v>1.1682838761084224E-2</v>
+        <v>1.8543180097092993E-2</v>
       </c>
       <c r="F31">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E31, D31, $B$6)</f>
-        <v>0.18999999999999442</v>
+        <v>0.2</v>
       </c>
       <c r="G31">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E31, D31, $B$6)</f>
@@ -891,11 +892,11 @@
       </c>
       <c r="E32">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D32, $B$6)</f>
-        <v>1.7913173489505607E-2</v>
+        <v>2.7456906561138417E-2</v>
       </c>
       <c r="F32">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E32, D32, $B$6)</f>
-        <v>0.18999999999999631</v>
+        <v>0.2</v>
       </c>
       <c r="G32">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E32, D32, $B$6)</f>
@@ -908,11 +909,11 @@
       </c>
       <c r="E33">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D33, $B$6)</f>
-        <v>2.6910742705706925E-2</v>
+        <v>3.9914343421845189E-2</v>
       </c>
       <c r="F33">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E33, D33, $B$6)</f>
-        <v>0.19000000000000214</v>
+        <v>0.2</v>
       </c>
       <c r="G33">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E33, D33, $B$6)</f>
@@ -925,11 +926,11 @@
       </c>
       <c r="E34">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D34, $B$6)</f>
-        <v>3.9643340385174364E-2</v>
+        <v>5.7008934088089269E-2</v>
       </c>
       <c r="F34">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E34, D34, $B$6)</f>
-        <v>0.19000000000000053</v>
+        <v>0.2</v>
       </c>
       <c r="G34">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E34, D34, $B$6)</f>
@@ -942,11 +943,11 @@
       </c>
       <c r="E35">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D35, $B$6)</f>
-        <v>5.7313260462375171E-2</v>
+        <v>8.0058534547881699E-2</v>
       </c>
       <c r="F35">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E35, D35, $B$6)</f>
-        <v>0.18999999999999811</v>
+        <v>0.2</v>
       </c>
       <c r="G35">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E35, D35, $B$6)</f>
@@ -959,11 +960,11 @@
       </c>
       <c r="E36">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D36, $B$6)</f>
-        <v>8.1379781554218766E-2</v>
+        <v>0.11061799019469776</v>
       </c>
       <c r="F36">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E36, D36, $B$6)</f>
-        <v>0.18999999999999703</v>
+        <v>0.2</v>
       </c>
       <c r="G36">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E36, D36, $B$6)</f>
@@ -976,11 +977,11 @@
       </c>
       <c r="E37">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D37, $B$6)</f>
-        <v>0.11357394374117291</v>
+        <v>0.15048353300942274</v>
       </c>
       <c r="F37">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E37, D37, $B$6)</f>
-        <v>0.19000000000000025</v>
+        <v>0.2</v>
       </c>
       <c r="G37">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E37, D37, $B$6)</f>
@@ -993,11 +994,11 @@
       </c>
       <c r="E38">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D38, $B$6)</f>
-        <v>0.15590306303918933</v>
+        <v>0.20168732797265232</v>
       </c>
       <c r="F38">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E38, D38, $B$6)</f>
-        <v>0.19000000000000056</v>
+        <v>0.2</v>
       </c>
       <c r="G38">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E38, D38, $B$6)</f>
@@ -1010,11 +1011,11 @@
       </c>
       <c r="E39">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D39, $B$6)</f>
-        <v>0.21064282204662721</v>
+        <v>0.266480974586214</v>
       </c>
       <c r="F39">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E39, D39, $B$6)</f>
-        <v>0.19000000000000006</v>
+        <v>0.2</v>
       </c>
       <c r="G39">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E39, D39, $B$6)</f>
@@ -1027,11 +1028,11 @@
       </c>
       <c r="E40">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D40, $B$6)</f>
-        <v>0.28031542940471166</v>
+        <v>0.34730740212793254</v>
       </c>
       <c r="F40">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E40, D40, $B$6)</f>
-        <v>0.189999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G40">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E40, D40, $B$6)</f>
@@ -1044,11 +1045,11 @@
       </c>
       <c r="E41">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D41, $B$6)</f>
-        <v>0.36765321408729257</v>
+        <v>0.44676133725329414</v>
       </c>
       <c r="F41">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E41, D41, $B$6)</f>
-        <v>0.18999999999999959</v>
+        <v>0.2</v>
       </c>
       <c r="G41">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E41, D41, $B$6)</f>
@@ -1061,11 +1062,11 @@
       </c>
       <c r="E42">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D42, $B$6)</f>
-        <v>0.4755480408412911</v>
+        <v>0.56753930674006803</v>
       </c>
       <c r="F42">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E42, D42, $B$6)</f>
-        <v>0.1899999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G42">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E42, D42, $B$6)</f>
@@ -1078,15 +1079,15 @@
       </c>
       <c r="E43">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D43, $B$6)</f>
-        <v>0.60698800585229229</v>
+        <v>0.71238089607367172</v>
       </c>
       <c r="F43">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E43, D43, $B$6)</f>
-        <v>0.18999999999999928</v>
+        <v>0.2</v>
       </c>
       <c r="G43">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E43, D43, $B$6)</f>
-        <v>0.2</v>
+        <v>0.17432886246995835</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.25">
@@ -1095,15 +1096,15 @@
       </c>
       <c r="E44">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D44, $B$6)</f>
-        <v>0.76498389175679904</v>
+        <v>0.8840036464770229</v>
       </c>
       <c r="F44">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E44, D44, $B$6)</f>
-        <v>0.18999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G44">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E44, D44, $B$6)</f>
-        <v>0.17472193995775281</v>
+        <v>0.18830122061342525</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.25">
@@ -1112,15 +1113,15 @@
       </c>
       <c r="E45">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D45, $B$6)</f>
-        <v>0.95248872583988131</v>
+        <v>1.0850344779622993</v>
       </c>
       <c r="F45">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E45, D45, $B$6)</f>
-        <v>0.19000000000000028</v>
+        <v>0.2</v>
       </c>
       <c r="G45">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E45, D45, $B$6)</f>
-        <v>0.18253859635006833</v>
+        <v>0.19392949421198211</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.25">
@@ -1129,15 +1130,15 @@
       </c>
       <c r="E46">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D46, $B$6)</f>
-        <v>1.1723144073788099</v>
+        <v>1.3179408286409817</v>
       </c>
       <c r="F46">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E46, D46, $B$6)</f>
-        <v>0.18999999999999934</v>
+        <v>0.2</v>
       </c>
       <c r="G46">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E46, D46, $B$6)</f>
-        <v>0.18621727641050126</v>
+        <v>0.19682971770812308</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
@@ -1146,15 +1147,15 @@
       </c>
       <c r="E47">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D47, $B$6)</f>
-        <v>1.4270496882590749</v>
+        <v>1.5849647756893894</v>
       </c>
       <c r="F47">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E47, D47, $B$6)</f>
-        <v>0.19000000000000056</v>
+        <v>0.2</v>
       </c>
       <c r="G47">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E47, D47, $B$6)</f>
-        <v>0.18812763055603746</v>
+        <v>0.19839404061908927</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.25">
@@ -1163,15 +1164,15 @@
       </c>
       <c r="E48">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D48, $B$6)</f>
-        <v>1.7189837765294911</v>
+        <v>1.8880632480607282</v>
       </c>
       <c r="F48">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E48, D48, $B$6)</f>
-        <v>0.1899999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G48">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E48, D48, $B$6)</f>
-        <v>0.18912040477848255</v>
+        <v>0.19922467136256311</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
@@ -1180,15 +1181,15 @@
       </c>
       <c r="E49">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D49, $B$6)</f>
-        <v>2.0500394917520666</v>
+        <v>2.2288570738163145</v>
       </c>
       <c r="F49">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E49, D49, $B$6)</f>
-        <v>0.19000000000000064</v>
+        <v>0.2</v>
       </c>
       <c r="G49">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E49, D49, $B$6)</f>
-        <v>0.18960988714564095</v>
+        <v>0.19964031495367704</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.25">
@@ -1197,15 +1198,15 @@
       </c>
       <c r="E50">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D50, $B$6)</f>
-        <v>2.4217192727388408</v>
+        <v>2.6085910627585847</v>
       </c>
       <c r="F50">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E50, D50, $B$6)</f>
-        <v>0.19000000000000036</v>
+        <v>0.2</v>
       </c>
       <c r="G50">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E50, D50, $B$6)</f>
-        <v>0.18982650164137227</v>
+        <v>0.19982662661417924</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.25">
@@ -1214,15 +1215,15 @@
       </c>
       <c r="E51">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D51, $B$6)</f>
-        <v>2.8350664878697742</v>
+        <v>3.0281066582734937</v>
       </c>
       <c r="F51">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E51, D51, $B$6)</f>
-        <v>0.19000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G51">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E51, D51, $B$6)</f>
-        <v>0.18990560706796311</v>
+        <v>0.19989576769250997</v>
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.25">
@@ -1231,15 +1232,15 @@
       </c>
       <c r="E52">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D52, $B$6)</f>
-        <v>3.2906435084266121</v>
+        <v>3.4878279587501879</v>
       </c>
       <c r="F52">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E52, D52, $B$6)</f>
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G52">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E52, D52, $B$6)</f>
-        <v>0.18992598035985808</v>
+        <v>0.19991416045225088</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.25">
@@ -1248,15 +1249,15 @@
       </c>
       <c r="E53">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D53, $B$6)</f>
-        <v>3.7885269662780985</v>
+        <v>3.987761167674492</v>
       </c>
       <c r="F53">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E53, D53, $B$6)</f>
-        <v>0.18999999999999945</v>
+        <v>0.2</v>
       </c>
       <c r="G53">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E53, D53, $B$6)</f>
-        <v>0.18992857625749376</v>
+        <v>0.1999166979073683</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.25">
@@ -1265,15 +1266,15 @@
       </c>
       <c r="E54">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D54, $B$6)</f>
-        <v>4.3283196160054445</v>
+        <v>4.5275068370385512</v>
       </c>
       <c r="F54">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E54, D54, $B$6)</f>
-        <v>0.19000000000000009</v>
+        <v>0.2</v>
       </c>
       <c r="G54">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E54, D54, $B$6)</f>
-        <v>0.18992605120504794</v>
+        <v>0.19991422735474856</v>
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.25">
@@ -1282,15 +1283,15 @@
       </c>
       <c r="E55">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D55, $B$6)</f>
-        <v>4.9091773339052764</v>
+        <v>5.1062836665495652</v>
       </c>
       <c r="F55">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E55, D55, $B$6)</f>
-        <v>0.18999999999999972</v>
+        <v>0.2</v>
       </c>
       <c r="G55">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E55, D55, $B$6)</f>
-        <v>0.18990714092798872</v>
+        <v>0.19989712942129492</v>
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.25">
@@ -1299,15 +1300,15 @@
       </c>
       <c r="E56">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D56, $B$6)</f>
-        <v>5.5298490702119949</v>
+        <v>5.7229621445706016</v>
       </c>
       <c r="F56">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E56, D56, $B$6)</f>
-        <v>0.19000000000000022</v>
+        <v>0.2</v>
       </c>
       <c r="G56">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E56, D56, $B$6)</f>
-        <v>0.18983743924942922</v>
+        <v>0.19983611777203844</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.25">
@@ -1316,15 +1317,15 @@
       </c>
       <c r="E57">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D57, $B$6)</f>
-        <v>6.1887270629541149</v>
+        <v>6.376105985444056</v>
       </c>
       <c r="F57">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E57, D57, $B$6)</f>
-        <v>0.18999999999999925</v>
+        <v>0.2</v>
       </c>
       <c r="G57">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E57, D57, $B$6)</f>
-        <v>0.18965674670714719</v>
+        <v>0.19968043252973414</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.25">
@@ -1333,15 +1334,15 @@
       </c>
       <c r="E58">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D58, $B$6)</f>
-        <v>6.8839043365846209</v>
+        <v>7.0640191378988391</v>
       </c>
       <c r="F58">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E58, D58, $B$6)</f>
-        <v>0.18999999999999953</v>
+        <v>0.2</v>
       </c>
       <c r="G58">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E58, D58, $B$6)</f>
-        <v>0.18927186523537073</v>
+        <v>0.19935273502082823</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.25">
@@ -1350,15 +1351,15 @@
       </c>
       <c r="E59">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D59, $B$6)</f>
-        <v>7.6132364399184667</v>
+        <v>7.7847961044341929</v>
       </c>
       <c r="F59">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E59, D59, $B$6)</f>
-        <v>0.18999999999999992</v>
+        <v>0.2</v>
       </c>
       <c r="G59">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E59, D59, $B$6)</f>
-        <v>0.18854152666113946</v>
+        <v>0.19873866072173221</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.25">
@@ -1367,15 +1368,15 @@
       </c>
       <c r="E60">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D60, $B$6)</f>
-        <v>8.3744045030477707</v>
+        <v>8.5363734057617648</v>
       </c>
       <c r="F60">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E60, D60, $B$6)</f>
-        <v>0.19000000000000131</v>
+        <v>0.2</v>
       </c>
       <c r="G60">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E60, D60, $B$6)</f>
-        <v>0.18724481789869099</v>
+        <v>0.19766599743227498</v>
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.25">
@@ -1384,15 +1385,15 @@
       </c>
       <c r="E61">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D61, $B$6)</f>
-        <v>9.1649769765946871</v>
+        <v>9.3165802243033653</v>
       </c>
       <c r="F61">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E61, D61, $B$6)</f>
-        <v>0.1900000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G61">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E61, D61, $B$6)</f>
-        <v>0.18500805406058318</v>
+        <v>0.19586024002366403</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.25">
@@ -1401,15 +1402,15 @@
       </c>
       <c r="E62">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D62, $B$6)</f>
-        <v>9.9824678165569338</v>
+        <v>10.123186539019301</v>
       </c>
       <c r="F62">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E62, D62, $B$6)</f>
-        <v>0.19000000000000178</v>
+        <v>0.2</v>
       </c>
       <c r="G62">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E62, D62, $B$6)</f>
-        <v>0.18109894100430571</v>
+        <v>0.19283529793057244</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.25">
@@ -1418,15 +1419,15 @@
       </c>
       <c r="E63">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D63, $B$6)</f>
-        <v>10.824389349504472</v>
+        <v>10.953947391857241</v>
       </c>
       <c r="F63">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E63, D63, $B$6)</f>
-        <v>0.18999999999999984</v>
+        <v>0.2</v>
       </c>
       <c r="G63">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E63, D63, $B$6)</f>
-        <v>0.17357672212564354</v>
+        <v>0.18754791281410271</v>
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.25">
@@ -1435,15 +1436,15 @@
       </c>
       <c r="E64">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D64, $B$6)</f>
-        <v>11.688298553386943</v>
+        <v>11.806642276452777</v>
       </c>
       <c r="F64">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E64, D64, $B$6)</f>
-        <v>0.19000000000000083</v>
+        <v>0.2</v>
       </c>
       <c r="G64">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E64, D64, $B$6)</f>
-        <v>0.2</v>
+        <v>0.17649408484895251</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.25">
@@ -1452,11 +1453,11 @@
       </c>
       <c r="E65">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D65, $B$6)</f>
-        <v>12.571835981314621</v>
+        <v>12.679108988059141</v>
       </c>
       <c r="F65">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E65, D65, $B$6)</f>
-        <v>0.19000000000000036</v>
+        <v>0.2</v>
       </c>
       <c r="G65">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E65, D65, $B$6)</f>
@@ -1469,11 +1470,11 @@
       </c>
       <c r="E66">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D66, $B$6)</f>
-        <v>13.472757009338125</v>
+        <v>13.569271600088314</v>
       </c>
       <c r="F66">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E66, D66, $B$6)</f>
-        <v>0.19000000000000114</v>
+        <v>0.2</v>
       </c>
       <c r="G66">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E66, D66, $B$6)</f>
@@ -1486,11 +1487,11 @@
       </c>
       <c r="E67">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D67, $B$6)</f>
-        <v>14.388955482792582</v>
+        <v>14.47516252219144</v>
       </c>
       <c r="F67">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E67, D67, $B$6)</f>
-        <v>0.18999999999999884</v>
+        <v>0.2</v>
       </c>
       <c r="G67">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E67, D67, $B$6)</f>
@@ -1503,11 +1504,11 @@
       </c>
       <c r="E68">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D68, $B$6)</f>
-        <v>15.318480155950098</v>
+        <v>15.394938837716396</v>
       </c>
       <c r="F68">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E68, D68, $B$6)</f>
-        <v>0.18999999999999978</v>
+        <v>0.2</v>
       </c>
       <c r="G68">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E68, D68, $B$6)</f>
@@ -1520,11 +1521,11 @@
       </c>
       <c r="E69">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D69, $B$6)</f>
-        <v>16.259544561035028</v>
+        <v>16.326893309710854</v>
       </c>
       <c r="F69">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E69, D69, $B$6)</f>
-        <v>0.18999999999999775</v>
+        <v>0.2</v>
       </c>
       <c r="G69">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E69, D69, $B$6)</f>
@@ -1537,11 +1538,11 @@
       </c>
       <c r="E70">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D70, $B$6)</f>
-        <v>17.21053110613073</v>
+        <v>17.269460583629098</v>
       </c>
       <c r="F70">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E70, D70, $B$6)</f>
-        <v>0.18999999999999731</v>
+        <v>0.2</v>
       </c>
       <c r="G70">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E70, D70, $B$6)</f>
@@ -1554,11 +1555,11 @@
       </c>
       <c r="E71">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D71, $B$6)</f>
-        <v>18.16999029320678</v>
+        <v>18.221219204170353</v>
       </c>
       <c r="F71">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E71, D71, $B$6)</f>
-        <v>0.19000000000000095</v>
+        <v>0.2</v>
       </c>
       <c r="G71">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E71, D71, $B$6)</f>
@@ -1571,11 +1572,11 @@
       </c>
       <c r="E72">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D72, $B$6)</f>
-        <v>19.136635976956512</v>
+        <v>19.180890108309015</v>
       </c>
       <c r="F72">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E72, D72, $B$6)</f>
-        <v>0.19000000000000275</v>
+        <v>0.2</v>
       </c>
       <c r="G72">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E72, D72, $B$6)</f>
@@ -1588,11 +1589,11 @@
       </c>
       <c r="E73">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D73, $B$6)</f>
-        <v>20.109337563855902</v>
+        <v>20.14733226325697</v>
       </c>
       <c r="F73">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E73, D73, $B$6)</f>
-        <v>0.1899999999999952</v>
+        <v>0.2</v>
       </c>
       <c r="G73">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E73, D73, $B$6)</f>
@@ -1605,11 +1606,11 @@
       </c>
       <c r="E74">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D74, $B$6)</f>
-        <v>21.087109991028044</v>
+        <v>21.119536094302717</v>
       </c>
       <c r="F74">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E74, D74, $B$6)</f>
-        <v>0.19000000000000275</v>
+        <v>0.2</v>
       </c>
       <c r="G74">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E74, D74, $B$6)</f>
@@ -1622,11 +1623,11 @@
       </c>
       <c r="E75">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D75, $B$6)</f>
-        <v>22.069102237953956</v>
+        <v>22.096615300806519</v>
       </c>
       <c r="F75">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E75, D75, $B$6)</f>
-        <v>0.18999999999999023</v>
+        <v>0.2</v>
       </c>
       <c r="G75">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E75, D75, $B$6)</f>
@@ -1639,11 +1640,11 @@
       </c>
       <c r="E76">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D76, $B$6)</f>
-        <v>23.054585021552072</v>
+        <v>23.077797596311754</v>
       </c>
       <c r="F76">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E76, D76, $B$6)</f>
-        <v>0.18999999999998893</v>
+        <v>0.2</v>
       </c>
       <c r="G76">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E76, D76, $B$6)</f>
@@ -1656,11 +1657,11 @@
       </c>
       <c r="E77">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D77, $B$6)</f>
-        <v>24.042938215812597</v>
+        <v>24.062414837222818</v>
       </c>
       <c r="F77">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E77, D77, $B$6)</f>
-        <v>0.18999999999999873</v>
+        <v>0.2</v>
       </c>
       <c r="G77">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E77, D77, $B$6)</f>
@@ -1673,11 +1674,11 @@
       </c>
       <c r="E78">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D78, $B$6)</f>
-        <v>25.033638428382119</v>
+        <v>25.04989292927732</v>
       </c>
       <c r="F78">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E78, D78, $B$6)</f>
-        <v>0.1899999999999927</v>
+        <v>0.2</v>
       </c>
       <c r="G78">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E78, D78, $B$6)</f>
@@ -1690,11 +1691,11 @@
       </c>
       <c r="E79">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D79, $B$6)</f>
-        <v>26.026247063755221</v>
+        <v>26.039741826510522</v>
       </c>
       <c r="F79">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E79, D79, $B$6)</f>
-        <v>0.18999999999999315</v>
+        <v>0.2</v>
       </c>
       <c r="G79">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E79, D79, $B$6)</f>
@@ -1707,11 +1708,11 @@
       </c>
       <c r="E80">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D80, $B$6)</f>
-        <v>27.020399109826059</v>
+        <v>27.031545866893069</v>
       </c>
       <c r="F80">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E80, D80, $B$6)</f>
-        <v>0.19000000000000097</v>
+        <v>0.2</v>
       </c>
       <c r="G80">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E80, D80, $B$6)</f>
@@ -1724,11 +1725,11 @@
       </c>
       <c r="E81">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D81, $B$6)</f>
-        <v>28.015792803733675</v>
+        <v>28.024954624625238</v>
       </c>
       <c r="F81">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E81, D81, $B$6)</f>
-        <v>0.1899999999999864</v>
+        <v>0.2</v>
       </c>
       <c r="G81">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E81, D81, $B$6)</f>
@@ -1741,11 +1742,11 @@
       </c>
       <c r="E82">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D82, $B$6)</f>
-        <v>29.012180265182039</v>
+        <v>29.01967440261366</v>
       </c>
       <c r="F82">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E82, D82, $B$6)</f>
-        <v>0.19000000000000597</v>
+        <v>0.2</v>
       </c>
       <c r="G82">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E82, D82, $B$6)</f>
@@ -1758,11 +1759,11 @@
       </c>
       <c r="E83">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D83, $B$6)</f>
-        <v>30.009359130722757</v>
+        <v>30.01546044060332</v>
       </c>
       <c r="F83">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E83, D83, $B$6)</f>
-        <v>0.18999999999997705</v>
+        <v>0.2</v>
       </c>
       <c r="G83">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E83, D83, $B$6)</f>
@@ -1775,11 +1776,11 @@
       </c>
       <c r="E84">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D84, $B$6)</f>
-        <v>31.007165180126833</v>
+        <v>31.012109874868926</v>
       </c>
       <c r="F84">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E84, D84, $B$6)</f>
-        <v>0.1899999999999801</v>
+        <v>0.2</v>
       </c>
       <c r="G84">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E84, D84, $B$6)</f>
@@ -1792,11 +1793,11 @@
       </c>
       <c r="E85">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D85, $B$6)</f>
-        <v>32.005465914735126</v>
+        <v>32.009455453913802</v>
       </c>
       <c r="F85">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E85, D85, $B$6)</f>
-        <v>0.19000000000004338</v>
+        <v>0.2</v>
       </c>
       <c r="G85">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E85, D85, $B$6)</f>
@@ -1809,11 +1810,11 @@
       </c>
       <c r="E86">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D86, $B$6)</f>
-        <v>33.004155026089464</v>
+        <v>33.007359990615484</v>
       </c>
       <c r="F86">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E86, D86, $B$6)</f>
-        <v>0.18999999999990194</v>
+        <v>0.2</v>
       </c>
       <c r="G86">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E86, D86, $B$6)</f>
@@ -1826,11 +1827,11 @@
       </c>
       <c r="E87">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D87, $B$6)</f>
-        <v>34.003147679622415</v>
+        <v>34.005711513827038</v>
       </c>
       <c r="F87">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E87, D87, $B$6)</f>
-        <v>0.18999999999995795</v>
+        <v>0.2</v>
       </c>
       <c r="G87">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E87, D87, $B$6)</f>
@@ -1843,11 +1844,11 @@
       </c>
       <c r="E88">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D88, $B$6)</f>
-        <v>35.002376531158006</v>
+        <v>35.004419070649647</v>
       </c>
       <c r="F88">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E88, D88, $B$6)</f>
-        <v>0.18999999999989614</v>
+        <v>0.2</v>
       </c>
       <c r="G88">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E88, D88, $B$6)</f>
@@ -1860,11 +1861,11 @@
       </c>
       <c r="E89">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D89, $B$6)</f>
-        <v>36.001788391987176</v>
+        <v>36.003409123466767</v>
       </c>
       <c r="F89">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E89, D89, $B$6)</f>
-        <v>0.18999999999989345</v>
+        <v>0.2</v>
       </c>
       <c r="G89">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E89, D89, $B$6)</f>
@@ -1877,11 +1878,11 @@
       </c>
       <c r="E90">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D90, $B$6)</f>
-        <v>37.001341460022047</v>
+        <v>37.002622482446</v>
       </c>
       <c r="F90">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E90, D90, $B$6)</f>
-        <v>0.19000000000018918</v>
+        <v>0.2</v>
       </c>
       <c r="G90">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E90, D90, $B$6)</f>
@@ -1894,11 +1895,11 @@
       </c>
       <c r="E91">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D91, $B$6)</f>
-        <v>38.001003038887191</v>
+        <v>38.002011713730752</v>
       </c>
       <c r="F91">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E91, D91, $B$6)</f>
-        <v>0.19000000000011522</v>
+        <v>0.2</v>
       </c>
       <c r="G91">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E91, D91, $B$6)</f>
@@ -1911,11 +1912,11 @@
       </c>
       <c r="E92">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D92, $B$6)</f>
-        <v>39.000747672847169</v>
+        <v>39.001538965202684</v>
       </c>
       <c r="F92">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E92, D92, $B$6)</f>
-        <v>0.19000000000017087</v>
+        <v>0.2</v>
       </c>
       <c r="G92">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E92, D92, $B$6)</f>
@@ -1928,11 +1929,11 @@
       </c>
       <c r="E93">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D93, $B$6)</f>
-        <v>40.000555632456695</v>
+        <v>40.001174154865041</v>
       </c>
       <c r="F93">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E93, D93, $B$6)</f>
-        <v>0.18999999999957173</v>
+        <v>0.2</v>
       </c>
       <c r="G93">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E93, D93, $B$6)</f>
@@ -1945,11 +1946,11 @@
       </c>
       <c r="E94">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D94, $B$6)</f>
-        <v>41.000411693192262</v>
+        <v>41.000893471044151</v>
       </c>
       <c r="F94">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E94, D94, $B$6)</f>
-        <v>0.19000000000034403</v>
+        <v>0.2</v>
       </c>
       <c r="G94">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E94, D94, $B$6)</f>
@@ -1962,11 +1963,11 @@
       </c>
       <c r="E95">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D95, $B$6)</f>
-        <v>42.000304156655574</v>
+        <v>42.000678138305773</v>
       </c>
       <c r="F95">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E95, D95, $B$6)</f>
-        <v>0.18999999999985498</v>
+        <v>0.2</v>
       </c>
       <c r="G95">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E95, D95, $B$6)</f>
@@ -1979,11 +1980,11 @@
       </c>
       <c r="E96">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D96, $B$6)</f>
-        <v>43.000224070948548</v>
+        <v>43.000513407909125</v>
       </c>
       <c r="F96">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E96, D96, $B$6)</f>
-        <v>0.18999999999895109</v>
+        <v>0.2</v>
       </c>
       <c r="G96">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E96, D96, $B$6)</f>
@@ -1996,11 +1997,11 @@
       </c>
       <c r="E97">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D97, $B$6)</f>
-        <v>44.000164613310631</v>
+        <v>44.000387736526079</v>
       </c>
       <c r="F97">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E97, D97, $B$6)</f>
-        <v>0.19000000000072842</v>
+        <v>0.2</v>
       </c>
       <c r="G97">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E97, D97, $B$6)</f>
@@ -2013,11 +2014,11 @@
       </c>
       <c r="E98">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D98, $B$6)</f>
-        <v>45.000120603979468</v>
+        <v>45.00029212166298</v>
       </c>
       <c r="F98">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E98, D98, $B$6)</f>
-        <v>0.18999999999890194</v>
+        <v>0.2</v>
       </c>
       <c r="G98">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E98, D98, $B$6)</f>
@@ -2030,11 +2031,11 @@
       </c>
       <c r="E99">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D99, $B$6)</f>
-        <v>46.000088125437813</v>
+        <v>46.000219566619791</v>
       </c>
       <c r="F99">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E99, D99, $B$6)</f>
-        <v>0.19000000000046477</v>
+        <v>0.2</v>
       </c>
       <c r="G99">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E99, D99, $B$6)</f>
@@ -2047,11 +2048,11 @@
       </c>
       <c r="E100">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D100, $B$6)</f>
-        <v>47.000064225739123</v>
+        <v>47.000164651840336</v>
       </c>
       <c r="F100">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E100, D100, $B$6)</f>
-        <v>0.18999999999736247</v>
+        <v>0.2</v>
       </c>
       <c r="G100">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E100, D100, $B$6)</f>
@@ -2064,11 +2065,11 @@
       </c>
       <c r="E101">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D101, $B$6)</f>
-        <v>48.000046688494209</v>
+        <v>48.000123193107342</v>
       </c>
       <c r="F101">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E101, D101, $B$6)</f>
-        <v>0.1900000000024972</v>
+        <v>0.2</v>
       </c>
       <c r="G101">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E101, D101, $B$6)</f>
@@ -2081,11 +2082,11 @@
       </c>
       <c r="E102">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D102, $B$6)</f>
-        <v>49.000033855393241</v>
+        <v>49.000091970216872</v>
       </c>
       <c r="F102">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E102, D102, $B$6)</f>
-        <v>0.18999999999800909</v>
+        <v>0.2</v>
       </c>
       <c r="G102">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E102, D102, $B$6)</f>
@@ -2098,11 +2099,11 @@
       </c>
       <c r="E103">
         <f>_xll.BLACK.PUT.VALUE($B$3, $B$4, D103, $B$6)</f>
-        <v>50.000024489896703</v>
+        <v>50.000068512534739</v>
       </c>
       <c r="F103">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($B$3, E103, D103, $B$6)</f>
-        <v>0.19000000000851847</v>
+        <v>0.2</v>
       </c>
       <c r="G103">
         <f>_xll.BLACK.CORRADO.MILLER.IMPLIED.VOLATILITY($B$3, E103, D103, $B$6)</f>
@@ -2112,4 +2113,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>